--- a/metadata/codex/todo/TMC - Children's Hospital of Philadelphia (CODEX).xlsx
+++ b/metadata/codex/todo/TMC - Children's Hospital of Philadelphia (CODEX).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$6</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>In-House</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>hour</t>
         </is>
       </c>
@@ -453,11 +448,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>month</t>
         </is>
       </c>
@@ -470,11 +460,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
@@ -487,11 +472,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>day</t>
         </is>
       </c>
@@ -504,11 +484,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>minute</t>
         </is>
       </c>
@@ -516,109 +491,96 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
+          <t>Custom</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
+          <t>NanoZoomer S360</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
+          <t>NanoZoomer S60</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SunChrom</t>
+          <t>Chromium X</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Visium CytAssist</t>
+          <t>AutoStainer XL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SunCollect Sprayer</t>
+          <t>Visium CytAssist</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M3+ Sprayer</t>
+          <t>SunCollect Sprayer</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Discovery Ultra</t>
+          <t>M3+ Sprayer</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ST5020 Multistainer</t>
+          <t>Discovery Ultra</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chromium iX</t>
+          <t>ST5020 Multistainer</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chromium Connect</t>
+          <t>Chromium iX</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M5 Sprayer</t>
+          <t>Chromium Connect</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
+        <is>
+          <t>M5 Sprayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -635,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,30 +658,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM296.PBWW.776</t>
+          <t>HBM638.LCQJ.779</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akoya Biosciences</t>
+          <t>CODEX Instrument</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM296.PBWW.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM638.LCQJ.779</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM638.LCQJ.779</t>
+          <t>HBM722.PNJF.969</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -735,37 +697,37 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM638.LCQJ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM722.PNJF.969</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM638.LCQJ.779</t>
+          <t>HBM727.LDRB.742</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akoya Biosciences</t>
+          <t>CODEX Instrument</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM638.LCQJ.779</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.LDRB.742</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM722.PNJF.969</t>
+          <t>HBM898.TFZC.444</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -781,133 +743,15 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM722.PNJF.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HBM722.PNJF.969</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM722.PNJF.969</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HBM727.LDRB.742</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CODEX Instrument</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.LDRB.742</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HBM727.LDRB.742</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.LDRB.742</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HBM898.TFZC.444</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CODEX Instrument</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM898.TFZC.444</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HBM898.TFZC.444</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM898.TFZC.444</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E11"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D4 D6 D8 D10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$18</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D5 D7 D9 D11" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$9</formula1>
+  <autoFilter ref="A1:E6"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3 D4 D5 D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1224,7 +1068,7 @@
   <autoFilter ref="A1:D16"/>
   <dataValidations count="1">
     <dataValidation sqref="C3 C6 C9 C12 C15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
